--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3288.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3288.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9247838289711714</v>
+        <v>1.183521866798401</v>
       </c>
       <c r="B1">
-        <v>2.22599233329809</v>
+        <v>3.312803983688354</v>
       </c>
       <c r="C1">
-        <v>3.92343726522913</v>
+        <v>2.572841167449951</v>
       </c>
       <c r="D1">
-        <v>3.018642688112458</v>
+        <v>1.296128869056702</v>
       </c>
       <c r="E1">
-        <v>1.266427008703202</v>
+        <v>0.9479374289512634</v>
       </c>
     </row>
   </sheetData>
